--- a/docu/tmp/TestExperiment5.xlsx
+++ b/docu/tmp/TestExperiment5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10D892-E512-4322-B7AC-B1B417CC8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9F0187-ED00-4BF8-A25A-392FA187F55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1515" windowWidth="16155" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1081,16 +1081,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1151,8 +1151,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>12.015000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>16.984000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>20</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2.0539999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>22</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>19.811</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>24</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>17.541</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>26</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>14.523999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>28</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>11.212</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>30</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>32</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>34</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>36</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>38</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>40</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>45</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>50</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>55</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>60</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>65</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>70</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>75</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>80</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>85</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>90</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>105</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>120</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>135</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>150</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>165</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>180</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
